--- a/config_aomi_6.15/game_module_config.xlsx
+++ b/config_aomi_6.15/game_module_config.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="1006">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="1004">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3162,9 +3162,6 @@
     <t>Act_ty_HLQJDManager</t>
   </si>
   <si>
-    <t>5月17日23:59:59</t>
-  </si>
-  <si>
     <t>act_030_hd_zjm</t>
   </si>
   <si>
@@ -3600,37 +3597,37 @@
     <t>Act_Ty_QJD1Manager</t>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_018_dlphb</t>
+    <t>act_ty_sjb_style/act_019_dlphb</t>
   </si>
   <si>
     <t>掉落排行榜皮肤（消耗）</t>
   </si>
   <si>
+    <t>act_ty_by_drop_style/act_018_zongzi</t>
+  </si>
+  <si>
+    <t>粽子掉落</t>
+  </si>
+  <si>
+    <t>5月24日23:59:59</t>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_012_hhl</t>
+  </si>
+  <si>
+    <t>换好礼皮肤</t>
+  </si>
+  <si>
     <t>3月29日23:59:59</t>
   </si>
   <si>
-    <t>act_ty_by_drop_style/act_018_zongzi</t>
-  </si>
-  <si>
-    <t>粽子掉落</t>
-  </si>
-  <si>
-    <t>5月24日23:59:59</t>
-  </si>
-  <si>
-    <t>act_ty_by_hhl_style/act_012_hhl</t>
-  </si>
-  <si>
-    <t>换好礼皮肤</t>
-  </si>
-  <si>
     <t>sys_act_base_style/sys_act_base_normal_001</t>
   </si>
   <si>
     <t>周常活动皮肤</t>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_019</t>
+    <t>sys_act_base_style/sys_act_base_weekly_020</t>
   </si>
   <si>
     <t>扩展活动皮肤</t>
@@ -3802,9 +3799,6 @@
   </si>
   <si>
     <t>Act_054_BYNSManager</t>
-  </si>
-  <si>
-    <t>2021年5月17日 23:59:59</t>
   </si>
   <si>
     <t>sys_txz</t>
@@ -3841,12 +3835,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3897,6 +3891,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
@@ -3921,6 +3922,26 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -3929,7 +3950,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3943,8 +4009,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3952,28 +4027,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3989,74 +4050,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4065,6 +4059,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4121,7 +4122,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4133,7 +4158,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4145,7 +4176,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4157,73 +4272,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4235,61 +4290,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4321,23 +4322,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4360,32 +4346,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4415,6 +4377,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4423,10 +4424,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4435,139 +4436,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4670,6 +4671,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -4691,10 +4695,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4703,16 +4707,19 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5045,11 +5052,11 @@
   <dimension ref="A1:I342"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C319" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C270" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C345" sqref="C345"/>
+      <selection pane="bottomRight" activeCell="C275" sqref="C275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -12035,46 +12042,46 @@
       <c r="B275" s="31" t="s">
         <v>795</v>
       </c>
-      <c r="C275" s="32" t="s">
+      <c r="C275" s="34" t="s">
         <v>796</v>
       </c>
       <c r="D275" s="33" t="s">
         <v>797</v>
       </c>
       <c r="E275" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F275" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G275" s="5">
-        <v>0</v>
-      </c>
-      <c r="I275" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="I275" s="46">
+        <v>44368</v>
+      </c>
+    </row>
+    <row r="276" s="6" customFormat="1" spans="1:9">
+      <c r="A276" s="35">
+        <v>275</v>
+      </c>
+      <c r="B276" s="36" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="276" s="6" customFormat="1" spans="1:9">
-      <c r="A276" s="34">
-        <v>275</v>
-      </c>
-      <c r="B276" s="35" t="s">
+      <c r="C276" s="37" t="s">
         <v>799</v>
       </c>
-      <c r="C276" s="36" t="s">
+      <c r="E276" s="6">
+        <v>1</v>
+      </c>
+      <c r="F276" s="6">
+        <v>1</v>
+      </c>
+      <c r="G276" s="6">
+        <v>1</v>
+      </c>
+      <c r="I276" s="37" t="s">
         <v>800</v>
-      </c>
-      <c r="E276" s="6">
-        <v>1</v>
-      </c>
-      <c r="F276" s="6">
-        <v>1</v>
-      </c>
-      <c r="G276" s="6">
-        <v>1</v>
-      </c>
-      <c r="I276" s="36" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="277" s="5" customFormat="1" ht="15.75" customHeight="1" spans="1:9">
@@ -12082,13 +12089,13 @@
         <v>276</v>
       </c>
       <c r="B277" s="31" t="s">
+        <v>801</v>
+      </c>
+      <c r="C277" s="32" t="s">
         <v>802</v>
       </c>
-      <c r="C277" s="32" t="s">
+      <c r="D277" s="31" t="s">
         <v>803</v>
-      </c>
-      <c r="D277" s="31" t="s">
-        <v>804</v>
       </c>
       <c r="E277" s="32">
         <v>0</v>
@@ -12101,7 +12108,7 @@
       </c>
       <c r="H277" s="32"/>
       <c r="I277" s="32" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="278" spans="1:9">
@@ -12109,13 +12116,13 @@
         <v>277</v>
       </c>
       <c r="B278" s="31" t="s">
+        <v>805</v>
+      </c>
+      <c r="C278" s="32" t="s">
         <v>806</v>
       </c>
-      <c r="C278" s="32" t="s">
+      <c r="D278" s="33" t="s">
         <v>807</v>
-      </c>
-      <c r="D278" s="33" t="s">
-        <v>808</v>
       </c>
       <c r="E278">
         <v>0</v>
@@ -12135,10 +12142,10 @@
         <v>278</v>
       </c>
       <c r="B279" s="31" t="s">
+        <v>808</v>
+      </c>
+      <c r="C279" s="32" t="s">
         <v>809</v>
-      </c>
-      <c r="C279" s="32" t="s">
-        <v>810</v>
       </c>
       <c r="E279">
         <v>0</v>
@@ -12158,13 +12165,13 @@
         <v>279</v>
       </c>
       <c r="B280" s="31" t="s">
+        <v>810</v>
+      </c>
+      <c r="C280" s="32" t="s">
         <v>811</v>
       </c>
-      <c r="C280" s="32" t="s">
+      <c r="D280" s="33" t="s">
         <v>812</v>
-      </c>
-      <c r="D280" s="33" t="s">
-        <v>813</v>
       </c>
       <c r="E280">
         <v>0</v>
@@ -12184,13 +12191,13 @@
         <v>280</v>
       </c>
       <c r="B281" s="31" t="s">
+        <v>813</v>
+      </c>
+      <c r="C281" s="32" t="s">
         <v>814</v>
       </c>
-      <c r="C281" s="32" t="s">
+      <c r="D281" s="33" t="s">
         <v>815</v>
-      </c>
-      <c r="D281" s="33" t="s">
-        <v>816</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -12210,13 +12217,13 @@
         <v>281</v>
       </c>
       <c r="B282" s="31" t="s">
+        <v>816</v>
+      </c>
+      <c r="C282" s="32" t="s">
         <v>817</v>
       </c>
-      <c r="C282" s="32" t="s">
+      <c r="D282" s="33" t="s">
         <v>818</v>
-      </c>
-      <c r="D282" s="33" t="s">
-        <v>819</v>
       </c>
       <c r="E282">
         <v>0</v>
@@ -12235,15 +12242,15 @@
       <c r="A283" s="13">
         <v>282</v>
       </c>
-      <c r="B283" s="37" t="s">
+      <c r="B283" s="38" t="s">
+        <v>819</v>
+      </c>
+      <c r="C283" s="39" t="s">
         <v>820</v>
       </c>
-      <c r="C283" s="38" t="s">
+      <c r="D283" s="38" t="s">
         <v>821</v>
       </c>
-      <c r="D283" s="37" t="s">
-        <v>822</v>
-      </c>
       <c r="E283" s="7">
         <v>1</v>
       </c>
@@ -12253,7 +12260,7 @@
       <c r="G283" s="7">
         <v>1</v>
       </c>
-      <c r="I283" s="38" t="s">
+      <c r="I283" s="39" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12261,15 +12268,15 @@
       <c r="A284" s="13">
         <v>283</v>
       </c>
-      <c r="B284" s="37" t="s">
+      <c r="B284" s="38" t="s">
+        <v>822</v>
+      </c>
+      <c r="C284" s="39" t="s">
         <v>823</v>
       </c>
-      <c r="C284" s="38" t="s">
+      <c r="D284" s="38" t="s">
         <v>824</v>
       </c>
-      <c r="D284" s="37" t="s">
-        <v>825</v>
-      </c>
       <c r="E284" s="7">
         <v>1</v>
       </c>
@@ -12279,7 +12286,7 @@
       <c r="G284" s="7">
         <v>1</v>
       </c>
-      <c r="I284" s="38" t="s">
+      <c r="I284" s="39" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12288,13 +12295,13 @@
         <v>284</v>
       </c>
       <c r="B285" s="31" t="s">
+        <v>825</v>
+      </c>
+      <c r="C285" s="32" t="s">
         <v>826</v>
       </c>
-      <c r="C285" s="32" t="s">
+      <c r="D285" s="33" t="s">
         <v>827</v>
-      </c>
-      <c r="D285" s="33" t="s">
-        <v>828</v>
       </c>
       <c r="E285">
         <v>0</v>
@@ -12313,15 +12320,15 @@
       <c r="A286" s="13">
         <v>285</v>
       </c>
-      <c r="B286" s="39" t="s">
+      <c r="B286" s="40" t="s">
+        <v>828</v>
+      </c>
+      <c r="C286" s="39" t="s">
         <v>829</v>
       </c>
-      <c r="C286" s="38" t="s">
+      <c r="D286" s="38" t="s">
         <v>830</v>
       </c>
-      <c r="D286" s="37" t="s">
-        <v>831</v>
-      </c>
       <c r="E286" s="7">
         <v>1</v>
       </c>
@@ -12331,7 +12338,7 @@
       <c r="G286" s="7">
         <v>1</v>
       </c>
-      <c r="I286" s="38" t="s">
+      <c r="I286" s="39" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12339,51 +12346,51 @@
       <c r="A287" s="13">
         <v>286</v>
       </c>
-      <c r="B287" s="39" t="s">
+      <c r="B287" s="40" t="s">
+        <v>831</v>
+      </c>
+      <c r="C287" s="39" t="s">
         <v>832</v>
       </c>
-      <c r="C287" s="38" t="s">
+      <c r="D287" s="38" t="s">
         <v>833</v>
       </c>
-      <c r="D287" s="37" t="s">
+      <c r="E287" s="7">
+        <v>1</v>
+      </c>
+      <c r="F287" s="7">
+        <v>1</v>
+      </c>
+      <c r="G287" s="7">
+        <v>1</v>
+      </c>
+      <c r="I287" s="39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="288" s="6" customFormat="1" spans="1:9">
+      <c r="A288" s="35">
+        <v>287</v>
+      </c>
+      <c r="B288" s="36" t="s">
         <v>834</v>
       </c>
-      <c r="E287" s="7">
-        <v>1</v>
-      </c>
-      <c r="F287" s="7">
-        <v>1</v>
-      </c>
-      <c r="G287" s="7">
-        <v>1</v>
-      </c>
-      <c r="I287" s="38" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="288" s="6" customFormat="1" spans="1:9">
-      <c r="A288" s="34">
-        <v>287</v>
-      </c>
-      <c r="B288" s="35" t="s">
+      <c r="C288" s="37" t="s">
         <v>835</v>
       </c>
-      <c r="C288" s="36" t="s">
+      <c r="D288" s="37" t="s">
         <v>836</v>
       </c>
-      <c r="D288" s="36" t="s">
-        <v>837</v>
-      </c>
       <c r="E288" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F288" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G288" s="6">
-        <v>1</v>
-      </c>
-      <c r="I288" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="I288" s="37" t="s">
         <v>723</v>
       </c>
     </row>
@@ -12391,15 +12398,15 @@
       <c r="A289" s="13">
         <v>288</v>
       </c>
-      <c r="B289" s="39" t="s">
+      <c r="B289" s="40" t="s">
+        <v>837</v>
+      </c>
+      <c r="C289" s="39" t="s">
         <v>838</v>
       </c>
-      <c r="C289" s="38" t="s">
+      <c r="D289" s="38" t="s">
         <v>839</v>
       </c>
-      <c r="D289" s="37" t="s">
-        <v>840</v>
-      </c>
       <c r="E289" s="7">
         <v>1</v>
       </c>
@@ -12409,7 +12416,7 @@
       <c r="G289" s="7">
         <v>1</v>
       </c>
-      <c r="I289" s="38" t="s">
+      <c r="I289" s="39" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12417,15 +12424,15 @@
       <c r="A290" s="13">
         <v>289</v>
       </c>
-      <c r="B290" s="37" t="s">
+      <c r="B290" s="38" t="s">
+        <v>840</v>
+      </c>
+      <c r="C290" s="39" t="s">
         <v>841</v>
       </c>
-      <c r="C290" s="38" t="s">
+      <c r="D290" s="38" t="s">
         <v>842</v>
       </c>
-      <c r="D290" s="37" t="s">
-        <v>843</v>
-      </c>
       <c r="E290" s="7">
         <v>1</v>
       </c>
@@ -12435,7 +12442,7 @@
       <c r="G290" s="7">
         <v>1</v>
       </c>
-      <c r="I290" s="38" t="s">
+      <c r="I290" s="39" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12443,15 +12450,15 @@
       <c r="A291" s="13">
         <v>290</v>
       </c>
-      <c r="B291" s="37" t="s">
+      <c r="B291" s="38" t="s">
+        <v>843</v>
+      </c>
+      <c r="C291" s="39" t="s">
         <v>844</v>
       </c>
-      <c r="C291" s="38" t="s">
+      <c r="D291" s="38" t="s">
         <v>845</v>
       </c>
-      <c r="D291" s="37" t="s">
-        <v>846</v>
-      </c>
       <c r="E291" s="7">
         <v>1</v>
       </c>
@@ -12461,7 +12468,7 @@
       <c r="G291" s="7">
         <v>1</v>
       </c>
-      <c r="I291" s="38" t="s">
+      <c r="I291" s="39" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12469,15 +12476,15 @@
       <c r="A292" s="13">
         <v>291</v>
       </c>
-      <c r="B292" s="37" t="s">
+      <c r="B292" s="38" t="s">
+        <v>846</v>
+      </c>
+      <c r="C292" s="39" t="s">
         <v>847</v>
       </c>
-      <c r="C292" s="38" t="s">
+      <c r="D292" s="38" t="s">
         <v>848</v>
       </c>
-      <c r="D292" s="37" t="s">
-        <v>849</v>
-      </c>
       <c r="E292" s="7">
         <v>1</v>
       </c>
@@ -12487,7 +12494,7 @@
       <c r="G292" s="7">
         <v>1</v>
       </c>
-      <c r="I292" s="38" t="s">
+      <c r="I292" s="39" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12495,15 +12502,15 @@
       <c r="A293" s="13">
         <v>292</v>
       </c>
-      <c r="B293" s="37" t="s">
+      <c r="B293" s="38" t="s">
+        <v>849</v>
+      </c>
+      <c r="C293" s="39" t="s">
         <v>850</v>
       </c>
-      <c r="C293" s="38" t="s">
+      <c r="D293" s="38" t="s">
         <v>851</v>
       </c>
-      <c r="D293" s="37" t="s">
-        <v>852</v>
-      </c>
       <c r="E293" s="7">
         <v>1</v>
       </c>
@@ -12513,7 +12520,7 @@
       <c r="G293" s="7">
         <v>1</v>
       </c>
-      <c r="I293" s="38" t="s">
+      <c r="I293" s="39" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12521,15 +12528,15 @@
       <c r="A294" s="13">
         <v>293</v>
       </c>
-      <c r="B294" s="37" t="s">
+      <c r="B294" s="38" t="s">
+        <v>852</v>
+      </c>
+      <c r="C294" s="39" t="s">
         <v>853</v>
       </c>
-      <c r="C294" s="38" t="s">
+      <c r="D294" s="38" t="s">
         <v>854</v>
       </c>
-      <c r="D294" s="37" t="s">
-        <v>855</v>
-      </c>
       <c r="E294" s="7">
         <v>1</v>
       </c>
@@ -12539,7 +12546,7 @@
       <c r="G294" s="7">
         <v>1</v>
       </c>
-      <c r="I294" s="38" t="s">
+      <c r="I294" s="39" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12547,15 +12554,15 @@
       <c r="A295" s="13">
         <v>294</v>
       </c>
-      <c r="B295" s="37" t="s">
+      <c r="B295" s="38" t="s">
+        <v>855</v>
+      </c>
+      <c r="C295" s="39" t="s">
         <v>856</v>
       </c>
-      <c r="C295" s="38" t="s">
+      <c r="D295" s="38" t="s">
         <v>857</v>
       </c>
-      <c r="D295" s="37" t="s">
-        <v>858</v>
-      </c>
       <c r="E295" s="7">
         <v>1</v>
       </c>
@@ -12565,7 +12572,7 @@
       <c r="G295" s="7">
         <v>1</v>
       </c>
-      <c r="I295" s="38" t="s">
+      <c r="I295" s="39" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12573,67 +12580,67 @@
       <c r="A296" s="13">
         <v>295</v>
       </c>
-      <c r="B296" s="40" t="s">
+      <c r="B296" s="41" t="s">
+        <v>858</v>
+      </c>
+      <c r="C296" s="32" t="s">
         <v>859</v>
       </c>
-      <c r="C296" s="32" t="s">
+      <c r="D296" s="41" t="s">
         <v>860</v>
       </c>
-      <c r="D296" s="40" t="s">
+      <c r="E296">
+        <v>0</v>
+      </c>
+      <c r="F296">
+        <v>0</v>
+      </c>
+      <c r="G296">
+        <v>0</v>
+      </c>
+      <c r="I296" s="32" t="s">
         <v>861</v>
-      </c>
-      <c r="E296">
-        <v>0</v>
-      </c>
-      <c r="F296">
-        <v>0</v>
-      </c>
-      <c r="G296">
-        <v>0</v>
-      </c>
-      <c r="I296" s="32" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="297" spans="1:9">
       <c r="A297" s="13">
         <v>296</v>
       </c>
-      <c r="B297" s="40" t="s">
+      <c r="B297" s="41" t="s">
+        <v>862</v>
+      </c>
+      <c r="C297" s="32" t="s">
         <v>863</v>
       </c>
-      <c r="C297" s="32" t="s">
+      <c r="D297" s="41" t="s">
         <v>864</v>
       </c>
-      <c r="D297" s="40" t="s">
+      <c r="E297">
+        <v>0</v>
+      </c>
+      <c r="F297">
+        <v>0</v>
+      </c>
+      <c r="G297">
+        <v>0</v>
+      </c>
+      <c r="I297" s="32" t="s">
         <v>865</v>
-      </c>
-      <c r="E297">
-        <v>0</v>
-      </c>
-      <c r="F297">
-        <v>0</v>
-      </c>
-      <c r="G297">
-        <v>0</v>
-      </c>
-      <c r="I297" s="32" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="298" spans="1:9">
       <c r="A298" s="13">
         <v>297</v>
       </c>
-      <c r="B298" s="40" t="s">
+      <c r="B298" s="41" t="s">
+        <v>866</v>
+      </c>
+      <c r="C298" s="32" t="s">
         <v>867</v>
       </c>
-      <c r="C298" s="32" t="s">
+      <c r="D298" s="41" t="s">
         <v>868</v>
       </c>
-      <c r="D298" s="40" t="s">
-        <v>869</v>
-      </c>
       <c r="E298">
         <v>0</v>
       </c>
@@ -12644,7 +12651,7 @@
         <v>0</v>
       </c>
       <c r="I298" s="32" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="299" s="5" customFormat="1" spans="1:9">
@@ -12652,13 +12659,13 @@
         <v>298</v>
       </c>
       <c r="B299" s="33" t="s">
+        <v>869</v>
+      </c>
+      <c r="C299" s="32" t="s">
         <v>870</v>
       </c>
-      <c r="C299" s="32" t="s">
+      <c r="D299" s="33" t="s">
         <v>871</v>
-      </c>
-      <c r="D299" s="33" t="s">
-        <v>872</v>
       </c>
       <c r="E299" s="5">
         <v>1</v>
@@ -12678,25 +12685,25 @@
         <v>299</v>
       </c>
       <c r="B300" s="33" t="s">
+        <v>872</v>
+      </c>
+      <c r="C300" s="32" t="s">
         <v>873</v>
       </c>
-      <c r="C300" s="32" t="s">
+      <c r="D300" s="33" t="s">
         <v>874</v>
       </c>
-      <c r="D300" s="33" t="s">
+      <c r="E300" s="5">
+        <v>0</v>
+      </c>
+      <c r="F300" s="5">
+        <v>0</v>
+      </c>
+      <c r="G300" s="5">
+        <v>0</v>
+      </c>
+      <c r="I300" s="32" t="s">
         <v>875</v>
-      </c>
-      <c r="E300" s="5">
-        <v>0</v>
-      </c>
-      <c r="F300" s="5">
-        <v>0</v>
-      </c>
-      <c r="G300" s="5">
-        <v>0</v>
-      </c>
-      <c r="I300" s="32" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="301" s="5" customFormat="1" spans="1:9">
@@ -12704,14 +12711,14 @@
         <v>300</v>
       </c>
       <c r="B301" s="33" t="s">
+        <v>876</v>
+      </c>
+      <c r="C301" s="32" t="s">
         <v>877</v>
       </c>
-      <c r="C301" s="32" t="s">
+      <c r="D301" s="33" t="s">
         <v>878</v>
       </c>
-      <c r="D301" s="33" t="s">
-        <v>879</v>
-      </c>
       <c r="E301" s="5">
         <v>0</v>
       </c>
@@ -12722,7 +12729,7 @@
         <v>0</v>
       </c>
       <c r="I301" s="32" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="302" s="5" customFormat="1" spans="1:9">
@@ -12730,14 +12737,14 @@
         <v>301</v>
       </c>
       <c r="B302" s="33" t="s">
+        <v>879</v>
+      </c>
+      <c r="C302" s="32" t="s">
         <v>880</v>
       </c>
-      <c r="C302" s="32" t="s">
+      <c r="D302" s="33" t="s">
         <v>881</v>
       </c>
-      <c r="D302" s="33" t="s">
-        <v>882</v>
-      </c>
       <c r="E302" s="5">
         <v>0</v>
       </c>
@@ -12748,7 +12755,7 @@
         <v>0</v>
       </c>
       <c r="I302" s="32" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="303" s="5" customFormat="1" spans="1:9">
@@ -12756,13 +12763,13 @@
         <v>302</v>
       </c>
       <c r="B303" s="33" t="s">
+        <v>882</v>
+      </c>
+      <c r="C303" s="32" t="s">
         <v>883</v>
       </c>
-      <c r="C303" s="32" t="s">
+      <c r="D303" s="33" t="s">
         <v>884</v>
-      </c>
-      <c r="D303" s="33" t="s">
-        <v>885</v>
       </c>
       <c r="E303" s="5">
         <v>1</v>
@@ -12782,25 +12789,25 @@
         <v>303</v>
       </c>
       <c r="B304" s="33" t="s">
+        <v>885</v>
+      </c>
+      <c r="C304" s="32" t="s">
         <v>886</v>
       </c>
-      <c r="C304" s="32" t="s">
+      <c r="D304" s="33" t="s">
         <v>887</v>
       </c>
-      <c r="D304" s="33" t="s">
+      <c r="E304" s="5">
+        <v>1</v>
+      </c>
+      <c r="F304" s="5">
+        <v>1</v>
+      </c>
+      <c r="G304" s="5">
+        <v>1</v>
+      </c>
+      <c r="I304" s="32" t="s">
         <v>888</v>
-      </c>
-      <c r="E304" s="5">
-        <v>1</v>
-      </c>
-      <c r="F304" s="5">
-        <v>1</v>
-      </c>
-      <c r="G304" s="5">
-        <v>1</v>
-      </c>
-      <c r="I304" s="32" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="305" s="5" customFormat="1" spans="1:9">
@@ -12808,14 +12815,14 @@
         <v>304</v>
       </c>
       <c r="B305" s="33" t="s">
+        <v>889</v>
+      </c>
+      <c r="C305" s="32" t="s">
         <v>890</v>
       </c>
-      <c r="C305" s="32" t="s">
+      <c r="D305" s="33" t="s">
         <v>891</v>
       </c>
-      <c r="D305" s="33" t="s">
-        <v>892</v>
-      </c>
       <c r="E305" s="5">
         <v>1</v>
       </c>
@@ -12826,7 +12833,7 @@
         <v>1</v>
       </c>
       <c r="I305" s="32" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="306" s="5" customFormat="1" spans="1:9">
@@ -12834,13 +12841,13 @@
         <v>305</v>
       </c>
       <c r="B306" s="33" t="s">
+        <v>892</v>
+      </c>
+      <c r="C306" s="33" t="s">
         <v>893</v>
       </c>
-      <c r="C306" s="33" t="s">
+      <c r="D306" s="33" t="s">
         <v>894</v>
-      </c>
-      <c r="D306" s="33" t="s">
-        <v>895</v>
       </c>
       <c r="E306" s="5">
         <v>1</v>
@@ -12860,13 +12867,13 @@
         <v>306</v>
       </c>
       <c r="B307" s="31" t="s">
+        <v>895</v>
+      </c>
+      <c r="C307" s="5" t="s">
         <v>896</v>
       </c>
-      <c r="C307" s="5" t="s">
+      <c r="D307" s="5" t="s">
         <v>897</v>
-      </c>
-      <c r="D307" s="5" t="s">
-        <v>898</v>
       </c>
       <c r="E307" s="5">
         <v>1</v>
@@ -12886,25 +12893,25 @@
         <v>307</v>
       </c>
       <c r="B308" s="33" t="s">
+        <v>898</v>
+      </c>
+      <c r="C308" s="32" t="s">
         <v>899</v>
       </c>
-      <c r="C308" s="32" t="s">
+      <c r="D308" s="33" t="s">
         <v>900</v>
       </c>
-      <c r="D308" s="33" t="s">
+      <c r="E308" s="5">
+        <v>1</v>
+      </c>
+      <c r="F308" s="5">
+        <v>1</v>
+      </c>
+      <c r="G308" s="5">
+        <v>1</v>
+      </c>
+      <c r="I308" s="32" t="s">
         <v>901</v>
-      </c>
-      <c r="E308" s="5">
-        <v>1</v>
-      </c>
-      <c r="F308" s="5">
-        <v>1</v>
-      </c>
-      <c r="G308" s="5">
-        <v>1</v>
-      </c>
-      <c r="I308" s="32" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="309" s="5" customFormat="1" spans="1:9">
@@ -12912,13 +12919,13 @@
         <v>308</v>
       </c>
       <c r="B309" s="33" t="s">
+        <v>902</v>
+      </c>
+      <c r="C309" s="32" t="s">
         <v>903</v>
       </c>
-      <c r="C309" s="32" t="s">
+      <c r="D309" s="33" t="s">
         <v>904</v>
-      </c>
-      <c r="D309" s="33" t="s">
-        <v>905</v>
       </c>
       <c r="E309" s="5">
         <v>1</v>
@@ -12938,14 +12945,14 @@
         <v>309</v>
       </c>
       <c r="B310" s="33" t="s">
+        <v>905</v>
+      </c>
+      <c r="C310" s="32" t="s">
         <v>906</v>
       </c>
-      <c r="C310" s="32" t="s">
+      <c r="D310" s="33" t="s">
         <v>907</v>
       </c>
-      <c r="D310" s="33" t="s">
-        <v>908</v>
-      </c>
       <c r="E310" s="5">
         <v>1</v>
       </c>
@@ -12956,7 +12963,7 @@
         <v>1</v>
       </c>
       <c r="I310" s="32" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="311" s="5" customFormat="1" spans="1:9">
@@ -12964,14 +12971,14 @@
         <v>310</v>
       </c>
       <c r="B311" s="33" t="s">
+        <v>908</v>
+      </c>
+      <c r="C311" s="32" t="s">
         <v>909</v>
       </c>
-      <c r="C311" s="32" t="s">
+      <c r="D311" s="33" t="s">
         <v>910</v>
       </c>
-      <c r="D311" s="33" t="s">
-        <v>911</v>
-      </c>
       <c r="E311" s="5">
         <v>0</v>
       </c>
@@ -12982,7 +12989,7 @@
         <v>0</v>
       </c>
       <c r="I311" s="32" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="312" s="5" customFormat="1" spans="1:7">
@@ -12990,13 +12997,13 @@
         <v>311</v>
       </c>
       <c r="B312" s="33" t="s">
+        <v>911</v>
+      </c>
+      <c r="C312" s="32" t="s">
         <v>912</v>
       </c>
-      <c r="C312" s="32" t="s">
+      <c r="D312" s="33" t="s">
         <v>913</v>
-      </c>
-      <c r="D312" s="33" t="s">
-        <v>914</v>
       </c>
       <c r="E312" s="5">
         <v>0</v>
@@ -13012,40 +13019,40 @@
       <c r="A313" s="13">
         <v>312</v>
       </c>
-      <c r="B313" s="41" t="s">
+      <c r="B313" s="42" t="s">
+        <v>914</v>
+      </c>
+      <c r="C313" s="32" t="s">
         <v>915</v>
       </c>
-      <c r="C313" s="32" t="s">
+      <c r="D313" s="33" t="s">
         <v>916</v>
       </c>
-      <c r="D313" s="33" t="s">
+      <c r="E313" s="5">
+        <v>0</v>
+      </c>
+      <c r="F313" s="5">
+        <v>0</v>
+      </c>
+      <c r="G313" s="5">
+        <v>0</v>
+      </c>
+      <c r="I313" s="32" t="s">
         <v>917</v>
-      </c>
-      <c r="E313" s="5">
-        <v>0</v>
-      </c>
-      <c r="F313" s="5">
-        <v>0</v>
-      </c>
-      <c r="G313" s="5">
-        <v>0</v>
-      </c>
-      <c r="I313" s="32" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="314" s="5" customFormat="1" ht="17.25" spans="1:9">
       <c r="A314" s="13">
         <v>313</v>
       </c>
-      <c r="B314" s="41" t="s">
+      <c r="B314" s="42" t="s">
+        <v>918</v>
+      </c>
+      <c r="C314" s="32" t="s">
         <v>919</v>
       </c>
-      <c r="C314" s="32" t="s">
+      <c r="D314" s="43" t="s">
         <v>920</v>
-      </c>
-      <c r="D314" s="42" t="s">
-        <v>921</v>
       </c>
       <c r="E314" s="5">
         <v>1</v>
@@ -13065,39 +13072,39 @@
         <v>314</v>
       </c>
       <c r="B315" s="33" t="s">
+        <v>921</v>
+      </c>
+      <c r="C315" s="32" t="s">
         <v>922</v>
       </c>
-      <c r="C315" s="32" t="s">
+      <c r="D315" s="33" t="s">
         <v>923</v>
       </c>
-      <c r="D315" s="33" t="s">
+      <c r="E315" s="5">
+        <v>0</v>
+      </c>
+      <c r="F315" s="5">
+        <v>0</v>
+      </c>
+      <c r="G315" s="5">
+        <v>0</v>
+      </c>
+      <c r="I315" s="32" t="s">
         <v>924</v>
-      </c>
-      <c r="E315" s="5">
-        <v>0</v>
-      </c>
-      <c r="F315" s="5">
-        <v>0</v>
-      </c>
-      <c r="G315" s="5">
-        <v>0</v>
-      </c>
-      <c r="I315" s="32" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="316" s="5" customFormat="1" ht="17.25" spans="1:9">
       <c r="A316" s="13">
         <v>315</v>
       </c>
-      <c r="B316" s="41" t="s">
+      <c r="B316" s="42" t="s">
+        <v>925</v>
+      </c>
+      <c r="C316" s="32" t="s">
         <v>926</v>
       </c>
-      <c r="C316" s="32" t="s">
+      <c r="D316" s="43" t="s">
         <v>927</v>
-      </c>
-      <c r="D316" s="42" t="s">
-        <v>928</v>
       </c>
       <c r="E316" s="5">
         <v>0</v>
@@ -13116,12 +13123,12 @@
       <c r="A317" s="13">
         <v>316</v>
       </c>
-      <c r="B317" s="43" t="s">
+      <c r="B317" s="44" t="s">
+        <v>928</v>
+      </c>
+      <c r="C317" s="37" t="s">
         <v>929</v>
       </c>
-      <c r="C317" s="36" t="s">
-        <v>930</v>
-      </c>
       <c r="E317" s="6">
         <v>1</v>
       </c>
@@ -13131,66 +13138,66 @@
       <c r="G317" s="6">
         <v>1</v>
       </c>
-      <c r="I317" s="36" t="s">
-        <v>931</v>
+      <c r="I317" s="46">
+        <v>44368</v>
       </c>
     </row>
     <row r="318" s="6" customFormat="1" spans="1:9">
       <c r="A318" s="13">
         <v>317</v>
       </c>
-      <c r="B318" s="43" t="s">
+      <c r="B318" s="44" t="s">
+        <v>930</v>
+      </c>
+      <c r="C318" s="37" t="s">
+        <v>931</v>
+      </c>
+      <c r="E318" s="6">
+        <v>0</v>
+      </c>
+      <c r="F318" s="6">
+        <v>0</v>
+      </c>
+      <c r="G318" s="6">
+        <v>0</v>
+      </c>
+      <c r="I318" s="37" t="s">
         <v>932</v>
-      </c>
-      <c r="C318" s="36" t="s">
-        <v>933</v>
-      </c>
-      <c r="E318" s="6">
-        <v>1</v>
-      </c>
-      <c r="F318" s="6">
-        <v>1</v>
-      </c>
-      <c r="G318" s="6">
-        <v>1</v>
-      </c>
-      <c r="I318" s="36" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="319" s="6" customFormat="1" spans="1:9">
       <c r="A319" s="13">
         <v>318</v>
       </c>
-      <c r="B319" s="43" t="s">
+      <c r="B319" s="44" t="s">
+        <v>933</v>
+      </c>
+      <c r="C319" s="37" t="s">
+        <v>934</v>
+      </c>
+      <c r="E319" s="6">
+        <v>0</v>
+      </c>
+      <c r="F319" s="6">
+        <v>0</v>
+      </c>
+      <c r="G319" s="6">
+        <v>0</v>
+      </c>
+      <c r="I319" s="37" t="s">
         <v>935</v>
-      </c>
-      <c r="C319" s="36" t="s">
-        <v>936</v>
-      </c>
-      <c r="E319" s="6">
-        <v>0</v>
-      </c>
-      <c r="F319" s="6">
-        <v>0</v>
-      </c>
-      <c r="G319" s="6">
-        <v>0</v>
-      </c>
-      <c r="I319" s="36" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="320" s="6" customFormat="1" spans="1:9">
       <c r="A320" s="13">
         <v>319</v>
       </c>
-      <c r="B320" s="44" t="s">
+      <c r="B320" s="45" t="s">
+        <v>936</v>
+      </c>
+      <c r="C320" s="37" t="s">
         <v>937</v>
       </c>
-      <c r="C320" s="36" t="s">
-        <v>938</v>
-      </c>
       <c r="E320" s="6">
         <v>1</v>
       </c>
@@ -13200,7 +13207,7 @@
       <c r="G320" s="6">
         <v>1</v>
       </c>
-      <c r="I320" s="36" t="s">
+      <c r="I320" s="37" t="s">
         <v>12</v>
       </c>
     </row>
@@ -13208,12 +13215,12 @@
       <c r="A321" s="13">
         <v>320</v>
       </c>
-      <c r="B321" s="45" t="s">
+      <c r="B321" s="47" t="s">
+        <v>938</v>
+      </c>
+      <c r="C321" s="37" t="s">
         <v>939</v>
       </c>
-      <c r="C321" s="36" t="s">
-        <v>940</v>
-      </c>
       <c r="E321" s="6">
         <v>1</v>
       </c>
@@ -13223,7 +13230,7 @@
       <c r="G321" s="6">
         <v>1</v>
       </c>
-      <c r="I321" s="36" t="s">
+      <c r="I321" s="37" t="s">
         <v>12</v>
       </c>
     </row>
@@ -13231,37 +13238,37 @@
       <c r="A322" s="13">
         <v>321</v>
       </c>
-      <c r="B322" s="43" t="s">
+      <c r="B322" s="44" t="s">
+        <v>940</v>
+      </c>
+      <c r="C322" s="37" t="s">
         <v>941</v>
       </c>
-      <c r="C322" s="36" t="s">
+      <c r="D322" s="44" t="s">
         <v>942</v>
       </c>
-      <c r="D322" s="43" t="s">
+      <c r="E322" s="6">
+        <v>1</v>
+      </c>
+      <c r="F322" s="6">
+        <v>1</v>
+      </c>
+      <c r="G322" s="6">
+        <v>1</v>
+      </c>
+      <c r="I322" s="37" t="s">
         <v>943</v>
-      </c>
-      <c r="E322" s="6">
-        <v>1</v>
-      </c>
-      <c r="F322" s="6">
-        <v>1</v>
-      </c>
-      <c r="G322" s="6">
-        <v>1</v>
-      </c>
-      <c r="I322" s="36" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="323" s="5" customFormat="1" spans="1:9">
       <c r="A323" s="13">
         <v>322</v>
       </c>
-      <c r="B323" s="46" t="s">
+      <c r="B323" s="48" t="s">
+        <v>944</v>
+      </c>
+      <c r="C323" s="32" t="s">
         <v>945</v>
-      </c>
-      <c r="C323" s="32" t="s">
-        <v>946</v>
       </c>
       <c r="D323" s="33"/>
       <c r="E323" s="5">
@@ -13274,7 +13281,7 @@
         <v>0</v>
       </c>
       <c r="I323" s="32" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="324" s="5" customFormat="1" spans="1:9">
@@ -13282,14 +13289,14 @@
         <v>323</v>
       </c>
       <c r="B324" s="33" t="s">
+        <v>946</v>
+      </c>
+      <c r="C324" s="32" t="s">
         <v>947</v>
       </c>
-      <c r="C324" s="32" t="s">
+      <c r="D324" s="33" t="s">
         <v>948</v>
       </c>
-      <c r="D324" s="33" t="s">
-        <v>949</v>
-      </c>
       <c r="E324" s="5">
         <v>0</v>
       </c>
@@ -13300,7 +13307,7 @@
         <v>0</v>
       </c>
       <c r="I324" s="32" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="325" s="5" customFormat="1" spans="1:9">
@@ -13308,11 +13315,11 @@
         <v>324</v>
       </c>
       <c r="B325" s="33" t="s">
+        <v>949</v>
+      </c>
+      <c r="C325" s="32" t="s">
         <v>950</v>
       </c>
-      <c r="C325" s="32" t="s">
-        <v>951</v>
-      </c>
       <c r="E325" s="5">
         <v>0</v>
       </c>
@@ -13323,7 +13330,7 @@
         <v>0</v>
       </c>
       <c r="I325" s="32" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="326" s="5" customFormat="1" spans="1:9">
@@ -13331,28 +13338,28 @@
         <v>325</v>
       </c>
       <c r="B326" s="33" t="s">
+        <v>951</v>
+      </c>
+      <c r="C326" s="33" t="s">
         <v>952</v>
       </c>
-      <c r="C326" s="33" t="s">
+      <c r="D326" s="33" t="s">
         <v>953</v>
       </c>
-      <c r="D326" s="33" t="s">
+      <c r="E326" s="5">
+        <v>0</v>
+      </c>
+      <c r="F326" s="5">
+        <v>0</v>
+      </c>
+      <c r="G326" s="5">
+        <v>0</v>
+      </c>
+      <c r="H326" s="5" t="s">
         <v>954</v>
       </c>
-      <c r="E326" s="5">
-        <v>0</v>
-      </c>
-      <c r="F326" s="5">
-        <v>0</v>
-      </c>
-      <c r="G326" s="5">
-        <v>0</v>
-      </c>
-      <c r="H326" s="5" t="s">
-        <v>955</v>
-      </c>
       <c r="I326" s="32" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="327" s="5" customFormat="1" spans="1:9">
@@ -13360,24 +13367,24 @@
         <v>326</v>
       </c>
       <c r="B327" s="33" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C327" s="32" t="s">
         <v>477</v>
       </c>
       <c r="D327" s="33" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E327" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F327" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G327" s="5">
-        <v>1</v>
-      </c>
-      <c r="I327" s="49">
+        <v>0</v>
+      </c>
+      <c r="I327" s="51">
         <v>44354</v>
       </c>
     </row>
@@ -13386,25 +13393,25 @@
         <v>327</v>
       </c>
       <c r="B328" s="33" t="s">
+        <v>957</v>
+      </c>
+      <c r="C328" s="32" t="s">
         <v>958</v>
       </c>
-      <c r="C328" s="32" t="s">
+      <c r="D328" s="33" t="s">
         <v>959</v>
       </c>
-      <c r="D328" s="33" t="s">
+      <c r="E328" s="5">
+        <v>0</v>
+      </c>
+      <c r="F328" s="5">
+        <v>0</v>
+      </c>
+      <c r="G328" s="5">
+        <v>0</v>
+      </c>
+      <c r="I328" s="32" t="s">
         <v>960</v>
-      </c>
-      <c r="E328" s="5">
-        <v>0</v>
-      </c>
-      <c r="F328" s="5">
-        <v>0</v>
-      </c>
-      <c r="G328" s="5">
-        <v>0</v>
-      </c>
-      <c r="I328" s="32" t="s">
-        <v>961</v>
       </c>
     </row>
     <row r="329" s="5" customFormat="1" spans="1:9">
@@ -13412,13 +13419,13 @@
         <v>328</v>
       </c>
       <c r="B329" s="31" t="s">
+        <v>961</v>
+      </c>
+      <c r="C329" s="32" t="s">
         <v>962</v>
       </c>
-      <c r="C329" s="32" t="s">
+      <c r="D329" s="32" t="s">
         <v>963</v>
-      </c>
-      <c r="D329" s="32" t="s">
-        <v>964</v>
       </c>
       <c r="E329" s="5">
         <v>0</v>
@@ -13438,13 +13445,13 @@
         <v>329</v>
       </c>
       <c r="B330" s="31" t="s">
+        <v>964</v>
+      </c>
+      <c r="C330" s="32" t="s">
         <v>965</v>
       </c>
-      <c r="C330" s="32" t="s">
+      <c r="D330" s="5" t="s">
         <v>966</v>
-      </c>
-      <c r="D330" s="5" t="s">
-        <v>967</v>
       </c>
       <c r="E330" s="5">
         <v>1</v>
@@ -13464,13 +13471,13 @@
         <v>330</v>
       </c>
       <c r="B331" s="8" t="s">
+        <v>967</v>
+      </c>
+      <c r="C331" s="32" t="s">
         <v>968</v>
       </c>
-      <c r="C331" s="32" t="s">
+      <c r="D331" t="s">
         <v>969</v>
-      </c>
-      <c r="D331" t="s">
-        <v>970</v>
       </c>
       <c r="E331" s="5">
         <v>1</v>
@@ -13490,13 +13497,13 @@
         <v>331</v>
       </c>
       <c r="B332" s="8" t="s">
+        <v>970</v>
+      </c>
+      <c r="C332" s="32" t="s">
         <v>971</v>
       </c>
-      <c r="C332" s="32" t="s">
+      <c r="D332" t="s">
         <v>972</v>
-      </c>
-      <c r="D332" t="s">
-        <v>973</v>
       </c>
       <c r="E332" s="5">
         <v>1</v>
@@ -13516,24 +13523,24 @@
         <v>332</v>
       </c>
       <c r="B333" s="8" t="s">
+        <v>973</v>
+      </c>
+      <c r="C333" s="32" t="s">
         <v>974</v>
       </c>
-      <c r="C333" s="32" t="s">
+      <c r="D333" s="28" t="s">
         <v>975</v>
       </c>
-      <c r="D333" s="28" t="s">
-        <v>976</v>
-      </c>
       <c r="E333" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F333" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G333" s="5">
-        <v>1</v>
-      </c>
-      <c r="I333" s="49">
+        <v>0</v>
+      </c>
+      <c r="I333" s="51">
         <v>44355</v>
       </c>
     </row>
@@ -13542,25 +13549,25 @@
         <v>333</v>
       </c>
       <c r="B334" s="8" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C334" s="32" t="s">
         <v>166</v>
       </c>
       <c r="D334" t="s">
+        <v>977</v>
+      </c>
+      <c r="E334" s="5">
+        <v>0</v>
+      </c>
+      <c r="F334" s="5">
+        <v>0</v>
+      </c>
+      <c r="G334" s="5">
+        <v>0</v>
+      </c>
+      <c r="I334" s="32" t="s">
         <v>978</v>
-      </c>
-      <c r="E334" s="5">
-        <v>0</v>
-      </c>
-      <c r="F334" s="5">
-        <v>0</v>
-      </c>
-      <c r="G334" s="5">
-        <v>0</v>
-      </c>
-      <c r="I334" s="32" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="335" spans="1:9">
@@ -13568,22 +13575,22 @@
         <v>334</v>
       </c>
       <c r="B335" s="8" t="s">
+        <v>979</v>
+      </c>
+      <c r="C335" s="32" t="s">
         <v>980</v>
       </c>
-      <c r="C335" s="32" t="s">
+      <c r="E335" s="5">
+        <v>0</v>
+      </c>
+      <c r="F335" s="5">
+        <v>0</v>
+      </c>
+      <c r="G335" s="5">
+        <v>0</v>
+      </c>
+      <c r="I335" s="32" t="s">
         <v>981</v>
-      </c>
-      <c r="E335" s="5">
-        <v>0</v>
-      </c>
-      <c r="F335" s="5">
-        <v>0</v>
-      </c>
-      <c r="G335" s="5">
-        <v>0</v>
-      </c>
-      <c r="I335" s="32" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="336" spans="1:7">
@@ -13591,13 +13598,13 @@
         <v>335</v>
       </c>
       <c r="B336" s="8" t="s">
+        <v>982</v>
+      </c>
+      <c r="C336" s="32" t="s">
         <v>983</v>
       </c>
-      <c r="C336" s="32" t="s">
+      <c r="D336" s="28" t="s">
         <v>984</v>
-      </c>
-      <c r="D336" s="28" t="s">
-        <v>985</v>
       </c>
       <c r="E336" s="5">
         <v>0</v>
@@ -13614,13 +13621,13 @@
         <v>336</v>
       </c>
       <c r="B337" s="8" t="s">
+        <v>985</v>
+      </c>
+      <c r="C337" s="32" t="s">
         <v>986</v>
       </c>
-      <c r="C337" s="32" t="s">
+      <c r="D337" s="28" t="s">
         <v>987</v>
-      </c>
-      <c r="D337" s="28" t="s">
-        <v>988</v>
       </c>
       <c r="E337" s="5">
         <v>0</v>
@@ -13637,11 +13644,11 @@
         <v>337</v>
       </c>
       <c r="B338" s="8" t="s">
+        <v>988</v>
+      </c>
+      <c r="C338" t="s">
         <v>989</v>
       </c>
-      <c r="C338" t="s">
-        <v>990</v>
-      </c>
       <c r="E338">
         <v>0</v>
       </c>
@@ -13651,7 +13658,7 @@
       <c r="G338">
         <v>0</v>
       </c>
-      <c r="I338" s="50">
+      <c r="I338" s="52">
         <v>44354</v>
       </c>
     </row>
@@ -13659,14 +13666,14 @@
       <c r="A339" s="13">
         <v>338</v>
       </c>
-      <c r="B339" s="47" t="s">
+      <c r="B339" s="49" t="s">
+        <v>990</v>
+      </c>
+      <c r="C339" t="s">
         <v>991</v>
       </c>
-      <c r="C339" t="s">
+      <c r="D339" s="50" t="s">
         <v>992</v>
-      </c>
-      <c r="D339" s="48" t="s">
-        <v>993</v>
       </c>
       <c r="E339">
         <v>1</v>
@@ -13682,52 +13689,52 @@
       <c r="A340" s="5">
         <v>339</v>
       </c>
-      <c r="B340" s="47" t="s">
+      <c r="B340" s="49" t="s">
+        <v>993</v>
+      </c>
+      <c r="C340" t="s">
         <v>994</v>
       </c>
-      <c r="C340" t="s">
+      <c r="D340" s="49" t="s">
         <v>995</v>
       </c>
-      <c r="D340" s="47" t="s">
-        <v>996</v>
-      </c>
       <c r="E340" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F340" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G340" s="5">
-        <v>0</v>
-      </c>
-      <c r="I340" s="32" t="s">
-        <v>997</v>
+        <v>1</v>
+      </c>
+      <c r="I340" s="46">
+        <v>44368</v>
       </c>
     </row>
     <row r="341" customFormat="1" ht="15.75" spans="1:9">
       <c r="A341" s="5">
         <v>340</v>
       </c>
-      <c r="B341" s="47" t="s">
+      <c r="B341" s="49" t="s">
+        <v>996</v>
+      </c>
+      <c r="C341" t="s">
+        <v>997</v>
+      </c>
+      <c r="D341" s="49" t="s">
         <v>998</v>
       </c>
-      <c r="C341" t="s">
+      <c r="E341">
+        <v>1</v>
+      </c>
+      <c r="F341">
+        <v>1</v>
+      </c>
+      <c r="G341">
+        <v>1</v>
+      </c>
+      <c r="I341" t="s">
         <v>999</v>
-      </c>
-      <c r="D341" s="47" t="s">
-        <v>1000</v>
-      </c>
-      <c r="E341">
-        <v>1</v>
-      </c>
-      <c r="F341">
-        <v>1</v>
-      </c>
-      <c r="G341">
-        <v>1</v>
-      </c>
-      <c r="I341" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="342" spans="1:9">
@@ -13735,14 +13742,14 @@
         <v>341</v>
       </c>
       <c r="B342" s="8" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C342" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D342" t="s">
         <v>1002</v>
       </c>
-      <c r="C342" t="s">
-        <v>1003</v>
-      </c>
-      <c r="D342" t="s">
-        <v>1004</v>
-      </c>
       <c r="E342">
         <v>1</v>
       </c>
@@ -13753,7 +13760,7 @@
         <v>1</v>
       </c>
       <c r="I342" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
   </sheetData>
@@ -13783,7 +13790,7 @@
   <sheetData>
     <row r="1" ht="153" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="2" ht="51.75" customHeight="1"/>
